--- a/数据整理/stocks/A股/深证主板/000408-藏格矿业.xlsx
+++ b/数据整理/stocks/A股/深证主板/000408-藏格矿业.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -963,7 +964,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -974,17 +975,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -994,13 +1015,597 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>007689</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国投瑞银新能源混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>78.74</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.2283</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012148</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银产业趋势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>45.53</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6846</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012079</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>信达澳银新能源精选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>35.11</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5659</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007690</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国投瑞银新能源混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>37.84</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.5514</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001704</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国投瑞银进宝灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>33.25</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.4331</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>310328</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>申万菱信新动力混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>34.56</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>73.99</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9746</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012149</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国投瑞银产业趋势混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>18.42</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6815</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013513</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长安先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1086</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002293</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方益和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>83.59</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0497</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013514</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长安先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001261</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中融新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004557</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>北信瑞丰鼎丰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>64.13</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011800</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>申万菱信价值精选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>81.46</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005536</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>渤海汇金量化成长混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.57</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>14</v>
+      </c>
+      <c r="D2" t="n">
+        <v>11.36</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>12</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>4.42</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000408-藏格矿业.xlsx
+++ b/数据整理/stocks/A股/深证主板/000408-藏格矿业.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1552,7 +1553,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1563,17 +1564,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1583,14 +1604,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>14</v>
-      </c>
-      <c r="D2" t="n">
-        <v>11.36</v>
+          <t>006736</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国投瑞银先进制造混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>53.79</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.5873</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1599,13 +1642,651 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>012079</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>信达澳银新能源精选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>58.79</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.4457</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001704</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国投瑞银进宝灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>46.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.1850</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008854</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方内需增长两年持有期股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>34.14</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.12</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6555</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>610004</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>信达澳银中小盘混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3920</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006265</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>红土创新新科技股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1329</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001753</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>红土创新新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1325</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008855</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方内需增长两年持有期股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.12</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1317</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013495</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>信达澳银产业优选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>47.38</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0944</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009467</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>红土创新科技创新3个月定开混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0881</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013173</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>红土创新科技创新3个月定开混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519050</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>海富通安颐收益混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>24.61</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012911</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>同泰沪深300指数量化增强型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002339</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>海富通安颐收益混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>24.61</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>013496</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>信达澳银产业优选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>47.38</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012912</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>同泰沪深300指数量化增强型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>16</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.93</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>14</v>
+      </c>
+      <c r="D3" t="n">
+        <v>11.36</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>12</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>4.42</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000408-藏格矿业.xlsx
+++ b/数据整理/stocks/A股/深证主板/000408-藏格矿业.xlsx
@@ -6,10 +6,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,37 +464,17 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>基金代码</t>
+          <t>日期</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>基金名称</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
           <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -504,36 +484,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>012079</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>信达澳银新能源精选混合型证券投资基金</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>38.50</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.51</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.04</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.9404</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>16</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.93</v>
       </c>
     </row>
     <row r="3">
@@ -542,36 +500,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>519005</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>海富通股票混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>25.49</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.05</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.06</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.2898</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>14</v>
+      </c>
+      <c r="D3" t="n">
+        <v>11.36</v>
       </c>
     </row>
     <row r="4">
@@ -580,378 +516,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>011717</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>浦银安盛均衡优选6个月持有期混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>5.10</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>89.07</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.82</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.2458</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>001753</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>红土创新新兴产业灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.96</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.17</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1861</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>006265</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>红土创新新科技股票</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>3.81</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.31</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.83</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1840</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>009651</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>海富通成长甄选混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>3.19</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>93.66</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>5.26</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1678</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>009652</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>海富通成长甄选混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2.82</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>93.66</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>5.26</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1483</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>008640</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>方正富邦科技创新混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2.31</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>91.75</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.92</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1137</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>008641</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>方正富邦科技创新混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1.44</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>91.75</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.92</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0708</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>168401</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>红土创新转型精选灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>78.65</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.34</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0361</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>011718</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>浦银安盛均衡优选6个月持有期混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>89.07</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>4.82</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0212</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>004557</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>北信瑞丰鼎丰灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>65.33</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4.40</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0176</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>3</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.42</v>
       </c>
     </row>
   </sheetData>
@@ -960,6 +532,670 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006736</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国投瑞银先进制造混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>53.79</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.5873</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012079</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>信达澳银新能源精选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>58.79</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.4457</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001704</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国投瑞银进宝灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>46.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.1850</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008854</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方内需增长两年持有期股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>34.14</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.12</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6555</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>610004</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>信达澳银中小盘混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3920</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006265</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>红土创新新科技股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1329</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001753</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>红土创新新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1325</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008855</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方内需增长两年持有期股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.12</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1317</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013495</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>信达澳银产业优选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>47.38</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0944</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009467</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>红土创新科技创新3个月定开混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0881</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013173</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>红土创新科技创新3个月定开混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519050</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>海富通安颐收益混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>24.61</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012911</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>同泰沪深300指数量化增强型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002339</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>海富通安颐收益混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>24.61</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>013496</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>信达澳银产业优选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>47.38</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012912</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>同泰沪深300指数量化增强型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1547,13 +1783,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1604,32 +1840,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006736</t>
+          <t>012079</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>国投瑞银先进制造混合</t>
+          <t>信达澳银新能源精选混合型证券投资基金</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>53.79</t>
+          <t>38.50</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.58</t>
+          <t>94.51</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.81</t>
+          <t>5.04</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.5873</t>
+          <t>1.9404</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1642,36 +1878,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>012079</t>
+          <t>519005</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>信达澳银新能源精选混合型证券投资基金</t>
+          <t>海富通股票混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>58.79</t>
+          <t>25.49</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.46</t>
+          <t>93.05</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.16</t>
+          <t>5.06</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.4457</t>
+          <t>1.2898</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1680,36 +1916,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001704</t>
+          <t>011717</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>国投瑞银进宝灵活配置混合</t>
+          <t>浦银安盛均衡优选6个月持有期混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>46.00</t>
+          <t>5.10</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.70</t>
+          <t>89.07</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>4.82</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2.1850</t>
+          <t>0.2458</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -1718,36 +1954,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>008854</t>
+          <t>001753</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>南方内需增长两年持有期股票A</t>
+          <t>红土创新新兴产业灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>34.14</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>88.12</t>
+          <t>94.96</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.92</t>
+          <t>5.17</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.6555</t>
+          <t>0.1861</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1756,36 +1992,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>610004</t>
+          <t>006265</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>信达澳银中小盘混合</t>
+          <t>红土创新新科技股票</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>7.92</t>
+          <t>3.81</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>91.90</t>
+          <t>94.31</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>4.83</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.3920</t>
+          <t>0.1840</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -1794,36 +2030,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>006265</t>
+          <t>009651</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>红土创新新科技股票</t>
+          <t>海富通成长甄选混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>3.19</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>93.90</t>
+          <t>93.66</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>5.26</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1329</t>
+          <t>0.1678</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -1832,36 +2068,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>001753</t>
+          <t>009652</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>红土创新新兴产业灵活配置混合</t>
+          <t>海富通成长甄选混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3.38</t>
+          <t>2.82</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>94.04</t>
+          <t>93.66</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.92</t>
+          <t>5.26</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1325</t>
+          <t>0.1483</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -1870,36 +2106,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>008855</t>
+          <t>008640</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>南方内需增长两年持有期股票C</t>
+          <t>方正富邦科技创新混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>6.86</t>
+          <t>2.31</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>88.12</t>
+          <t>91.75</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.92</t>
+          <t>4.92</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.1317</t>
+          <t>0.1137</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -1908,36 +2144,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>013495</t>
+          <t>008641</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>信达澳银产业优选一年持有混合A</t>
+          <t>方正富邦科技创新混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>47.38</t>
+          <t>91.75</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>4.16</t>
+          <t>4.92</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0944</t>
+          <t>0.0708</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -1946,36 +2182,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>009467</t>
+          <t>168401</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>红土创新科技创新3个月定开混合A</t>
+          <t>红土创新转型精选灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2.04</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>93.09</t>
+          <t>78.65</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>4.32</t>
+          <t>3.34</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0881</t>
+          <t>0.0361</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -1984,36 +2220,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>013173</t>
+          <t>011718</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>红土创新科技创新3个月定开混合C</t>
+          <t>浦银安盛均衡优选6个月持有期混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>93.09</t>
+          <t>89.07</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>4.32</t>
+          <t>4.82</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0246</t>
+          <t>0.0212</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -2022,272 +2258,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>519050</t>
+          <t>004557</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>海富通安颐收益混合A</t>
+          <t>北信瑞丰鼎丰灵活配置混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>6.30</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>24.61</t>
+          <t>65.33</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0189</t>
+          <t>0.0176</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>012911</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>同泰沪深300指数量化增强型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>91.38</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2.08</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0187</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>002339</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>海富通安颐收益混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>3.86</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>24.61</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0116</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>013496</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>信达澳银产业优选一年持有混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>47.38</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>4.16</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0087</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>012912</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>同泰沪深300指数量化增强型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>91.38</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2.08</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0029</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>16</v>
-      </c>
-      <c r="D2" t="n">
-        <v>8.93</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>14</v>
-      </c>
-      <c r="D3" t="n">
-        <v>11.36</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>12</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.42</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/000408-藏格矿业.xlsx
+++ b/数据整理/stocks/A股/深证主板/000408-藏格矿业.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D2" t="n">
-        <v>8.93</v>
+        <v>14.71</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D3" t="n">
-        <v>11.36</v>
+        <v>8.93</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>14</v>
+      </c>
+      <c r="D4" t="n">
+        <v>11.36</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>12</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>4.42</v>
       </c>
     </row>
@@ -532,6 +549,936 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006736</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国投瑞银先进制造混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>43.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.5276</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007689</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银新能源混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>43.07</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.18</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.4938</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001704</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国投瑞银进宝灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>42.10</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.58</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.2229</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007690</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国投瑞银新能源混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>36.94</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.18</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.1388</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012148</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国投瑞银产业趋势混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>28.36</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.6817</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012149</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国投瑞银产业趋势混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>17.96</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0650</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008854</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方内需增长两年持有期股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>21.14</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.74</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4799</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>970010</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>方正证券金立方一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.76</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.41</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4386</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>610004</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>信澳中小盘混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.49</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3387</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005478</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长安鑫禧灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3345</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005344</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长安裕盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3065</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>290014</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>泰信现代服务业混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1466</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>014488</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国投瑞银产业升级两年持有混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>80.83</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1407</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008855</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>南方内需增长两年持有期股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.74</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1151</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005477</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长安鑫禧灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0991</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>013495</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>信澳产业优选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>79.40</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0727</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005343</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>长安裕盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0491</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001261</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中融新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>014489</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国投瑞银产业升级两年持有混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>80.83</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001572</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>嘉合磐石混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>37.81</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>013496</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>信澳产业优选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>79.40</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>970009</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>方正证券金立方一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>87.41</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001571</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>嘉合磐石混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>37.81</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1195,7 +2142,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1783,7 +2730,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/000408-藏格矿业.xlsx
+++ b/数据整理/stocks/A股/深证主板/000408-藏格矿业.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D2" t="n">
-        <v>14.71</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D3" t="n">
-        <v>8.93</v>
+        <v>14.71</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D4" t="n">
-        <v>11.36</v>
+        <v>8.93</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>14</v>
+      </c>
+      <c r="D5" t="n">
+        <v>11.36</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>12</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>4.42</v>
       </c>
     </row>
@@ -549,6 +566,594 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005344</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长安裕盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.31</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3612</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005478</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长安鑫禧灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.17</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3439</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>610004</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>信澳中小盘混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3087</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005477</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长安鑫禧灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.17</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0990</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>290014</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泰信现代服务业混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>77.48</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0862</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005343</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长安裕盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.31</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0503</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>015061</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中信建投沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005186</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长安鑫兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>015062</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中信建投沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005187</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长安鑫兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003241</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>创金合信量化发现灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003242</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>创金合信量化发现灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005373</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中加紫金灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>26.40</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005374</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中加紫金灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>26.40</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1478,7 +2083,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2142,7 +2747,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2730,7 +3335,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
